--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -585,13 +585,13 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
@@ -3610,7 +3607,7 @@
         <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>94</v>
@@ -3641,7 +3638,7 @@
         <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>82</v>
@@ -3656,11 +3653,9 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y14" t="s" s="2">
         <v>183</v>
       </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
         <v>184</v>
       </c>
@@ -3778,13 +3773,11 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3826,10 +3819,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3837,10 +3830,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3863,13 +3856,13 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3920,7 +3913,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3944,7 +3937,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -3955,10 +3948,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3987,7 +3980,7 @@
         <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>142</v>
@@ -4028,19 +4021,19 @@
         <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4064,7 +4057,7 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4075,10 +4068,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4101,19 +4094,19 @@
         <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4162,7 +4155,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4183,10 +4176,10 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4197,10 +4190,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4223,13 +4216,13 @@
         <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4280,7 +4273,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4304,7 +4297,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4315,10 +4308,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4347,7 +4340,7 @@
         <v>140</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>142</v>
@@ -4388,19 +4381,19 @@
         <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4424,7 +4417,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4435,10 +4428,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4464,16 +4457,16 @@
         <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4483,46 +4476,46 @@
         <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4543,10 +4536,10 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4557,10 +4550,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4583,16 +4576,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4642,7 +4635,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4663,10 +4656,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4677,10 +4670,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4706,14 +4699,14 @@
         <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4723,46 +4716,46 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4783,10 +4776,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4797,10 +4790,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4823,17 +4816,17 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4882,7 +4875,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4903,10 +4896,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4917,10 +4910,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4943,19 +4936,19 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5004,7 +4997,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5025,10 +5018,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5039,10 +5032,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5065,19 +5058,19 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5087,46 +5080,46 @@
         <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5147,10 +5140,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5161,14 +5154,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5190,16 +5183,16 @@
         <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5224,11 +5217,11 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5246,7 +5239,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>93</v>
@@ -5261,30 +5254,30 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5307,13 +5300,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5364,7 +5357,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5388,7 +5381,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5399,10 +5392,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5431,7 +5424,7 @@
         <v>140</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>142</v>
@@ -5472,19 +5465,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AC29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AC29" t="s" s="2">
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5508,7 +5501,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5519,10 +5512,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5545,19 +5538,19 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5606,7 +5599,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5627,10 +5620,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5641,10 +5634,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5667,13 +5660,13 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5724,7 +5717,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5748,7 +5741,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5759,10 +5752,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5791,7 +5784,7 @@
         <v>140</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>142</v>
@@ -5832,19 +5825,19 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AC32" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AD32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5868,7 +5861,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5879,10 +5872,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5908,16 +5901,16 @@
         <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5966,7 +5959,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5987,10 +5980,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6001,10 +5994,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6027,16 +6020,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6086,7 +6079,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6107,10 +6100,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6121,10 +6114,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6150,14 +6143,14 @@
         <v>113</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6206,7 +6199,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6227,10 +6220,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6241,10 +6234,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6267,17 +6260,17 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6326,7 +6319,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6347,10 +6340,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6361,10 +6354,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6387,19 +6380,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6448,7 +6441,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6469,10 +6462,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6483,10 +6476,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6509,19 +6502,19 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6570,7 +6563,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6591,10 +6584,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6605,10 +6598,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6631,19 +6624,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6692,7 +6685,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6707,19 +6700,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -6727,10 +6720,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6753,16 +6746,16 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6812,7 +6805,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6833,13 +6826,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -6847,14 +6840,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6873,19 +6866,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6934,7 +6927,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6949,19 +6942,19 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -6969,14 +6962,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6995,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7056,7 +7049,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7071,19 +7064,19 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7091,10 +7084,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7117,16 +7110,16 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7176,7 +7169,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7197,13 +7190,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7211,10 +7204,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7237,17 +7230,17 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7296,7 +7289,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7311,19 +7304,19 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7331,10 +7324,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7357,19 +7350,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7418,7 +7411,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7427,7 +7420,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7436,27 +7429,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7482,16 +7475,16 @@
         <v>191</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7516,14 +7509,14 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7540,7 +7533,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7549,7 +7542,7 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7564,7 +7557,7 @@
         <v>136</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7575,14 +7568,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7604,16 +7597,16 @@
         <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7638,14 +7631,14 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7662,7 +7655,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7680,27 +7673,27 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7723,19 +7716,19 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7784,7 +7777,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7805,10 +7798,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7819,10 +7812,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7848,13 +7841,13 @@
         <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7880,14 +7873,14 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7904,7 +7897,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7922,27 +7915,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7968,16 +7961,16 @@
         <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8002,14 +7995,14 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8026,7 +8019,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8047,10 +8040,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8061,10 +8054,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8087,16 +8080,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8146,7 +8139,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8164,27 +8157,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8207,16 +8200,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8266,7 +8259,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8284,27 +8277,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8327,19 +8320,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8388,7 +8381,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8400,19 +8393,19 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8423,10 +8416,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8449,13 +8442,13 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8506,7 +8499,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8530,7 +8523,7 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8541,10 +8534,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8573,7 +8566,7 @@
         <v>140</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>142</v>
@@ -8626,7 +8619,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8650,7 +8643,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8661,14 +8654,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8690,10 +8683,10 @@
         <v>139</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>142</v>
@@ -8748,7 +8741,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8783,10 +8776,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8809,13 +8802,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8866,7 +8859,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8875,7 +8868,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -8887,10 +8880,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8901,10 +8894,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8927,13 +8920,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8984,7 +8977,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8993,7 +8986,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9005,10 +8998,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9019,10 +9012,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9048,16 +9041,16 @@
         <v>191</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9085,11 +9078,11 @@
         <v>117</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9106,7 +9099,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9124,13 +9117,13 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AN59" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9141,10 +9134,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9170,16 +9163,16 @@
         <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9204,14 +9197,14 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9228,7 +9221,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9246,13 +9239,13 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9263,10 +9256,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9289,17 +9282,17 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9348,7 +9341,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9372,7 +9365,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9383,10 +9376,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9409,13 +9402,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9466,7 +9459,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9487,10 +9480,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9501,10 +9494,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9527,16 +9520,16 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9586,7 +9579,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9607,10 +9600,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9621,10 +9614,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9647,16 +9640,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9706,7 +9699,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9727,10 +9720,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9741,10 +9734,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9767,19 +9760,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9828,7 +9821,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9849,10 +9842,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9863,10 +9856,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9889,13 +9882,13 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9946,7 +9939,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9970,7 +9963,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -9981,10 +9974,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10013,7 +10006,7 @@
         <v>140</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>142</v>
@@ -10066,7 +10059,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10090,7 +10083,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10101,14 +10094,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10130,10 +10123,10 @@
         <v>139</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>142</v>
@@ -10188,7 +10181,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10223,10 +10216,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10252,16 +10245,16 @@
         <v>191</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N69" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="O69" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10286,14 +10279,14 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10310,7 +10303,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>93</v>
@@ -10328,16 +10321,16 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10345,10 +10338,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10371,19 +10364,19 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="O70" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10432,7 +10425,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10450,27 +10443,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10496,16 +10489,16 @@
         <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10530,14 +10523,14 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10554,7 +10547,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10563,7 +10556,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10578,7 +10571,7 @@
         <v>136</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10589,14 +10582,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10618,16 +10611,16 @@
         <v>191</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10652,14 +10645,14 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10676,7 +10669,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10694,27 +10687,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10740,16 +10733,16 @@
         <v>83</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="N73" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10798,7 +10791,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10819,10 +10812,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -769,7 +769,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>vital-signs</t>
+    <t>survey</t>
   </si>
   <si>
     <t>Coding.code</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
